--- a/deploy/libraries/new_wind_data.xlsx
+++ b/deploy/libraries/new_wind_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprillim\sam_dev\sam\deploy\libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC482C-1326-4374-AA09-8196A8A345D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE4D8D0-0688-4FDD-BEAD-F2108B54331D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="2190" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wind Turbines" sheetId="1" r:id="rId1"/>
@@ -2558,6 +2558,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3058,7 +3061,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3084,6 +3087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6666,21 +6670,6 @@
                 <c:pt idx="29">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6778,21 +6767,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8652,7 +8626,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NPS 100-24'!$A$6:$A$46</c:f>
+              <c:f>'NPS 100-21'!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -8784,7 +8758,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NPS 100-24'!$B$6:$B$46</c:f>
+              <c:f>'NPS 100-21'!$B$6:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -8806,13 +8780,13 @@
                 <c:pt idx="5">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.0">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>29.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.0">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -8833,7 +8807,7 @@
                 <c:pt idx="14">
                   <c:v>97.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
@@ -8860,7 +8834,7 @@
                 <c:pt idx="23">
                   <c:v>97.3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.0">
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -10271,198 +10245,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NPS 100-21'!$A$6:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'NPS 100-21'!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NPS 100-21'!$B$6:$B$35</c:f>
+              <c:f>'NPS 100-21'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>89.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>73.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>57.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33590,28 +33383,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q288"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="Q120" sqref="Q120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="48.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="69.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="48.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>730</v>
       </c>
@@ -33664,7 +33458,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33702,7 +33496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33740,7 +33534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33778,7 +33572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33816,7 +33610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33854,7 +33648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33892,7 +33686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -33930,7 +33724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33971,7 +33765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34009,7 +33803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34047,7 +33841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34091,7 +33885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34129,7 +33923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34170,7 +33964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34208,7 +34002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34249,7 +34043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -34287,7 +34081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -34325,7 +34119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -34363,7 +34157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -34401,7 +34195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -34442,7 +34236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -34480,7 +34274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -34518,7 +34312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -34556,7 +34350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -34594,7 +34388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -34632,7 +34426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -34670,7 +34464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -34708,7 +34502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -34752,7 +34546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -34796,7 +34590,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -34846,7 +34640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -34881,7 +34675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -34919,7 +34713,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -34957,7 +34751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -35001,7 +34795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -35039,7 +34833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -35077,7 +34871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -35115,7 +34909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -35156,7 +34950,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -35194,7 +34988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -35232,7 +35026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -35270,7 +35064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -35308,7 +35102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -35346,7 +35140,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -35387,7 +35181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -35425,7 +35219,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -35463,7 +35257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -35501,7 +35295,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -35539,7 +35333,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -35583,7 +35377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -35627,7 +35421,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -35665,7 +35459,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -35703,7 +35497,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -35741,7 +35535,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -35791,7 +35585,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -35844,7 +35638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -35888,7 +35682,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -35932,7 +35726,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -35970,7 +35764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -36008,7 +35802,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -36046,7 +35840,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -36084,7 +35878,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -36122,7 +35916,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -36160,7 +35954,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -36198,7 +35992,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -36249,7 +36043,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -36287,7 +36081,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -36325,7 +36119,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -36363,7 +36157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -36401,7 +36195,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -36439,7 +36233,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -36477,7 +36271,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -36509,7 +36303,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -36547,7 +36341,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -36585,7 +36379,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -36628,7 +36422,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -36678,7 +36472,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -36716,7 +36510,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -36754,7 +36548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -36798,7 +36592,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -36849,7 +36643,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -36897,7 +36691,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -36935,7 +36729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -36973,7 +36767,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -37011,7 +36805,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -37055,7 +36849,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -37093,7 +36887,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -37131,7 +36925,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -37169,7 +36963,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -37217,7 +37011,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -37255,7 +37049,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -37293,7 +37087,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -37331,7 +37125,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -37369,7 +37163,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -37407,7 +37201,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -37445,7 +37239,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -37493,7 +37287,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -37531,7 +37325,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -37569,7 +37363,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -37607,7 +37401,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -37654,7 +37448,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -37692,7 +37486,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -37730,7 +37524,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -37768,7 +37562,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -37806,7 +37600,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -37844,7 +37638,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -37882,7 +37676,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -37920,7 +37714,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -37958,7 +37752,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -37996,7 +37790,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -38034,7 +37828,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -38072,7 +37866,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -38110,7 +37904,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -38148,7 +37942,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -38186,7 +37980,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -38224,7 +38018,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -38262,7 +38056,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -38300,7 +38094,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -38347,7 +38141,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -38394,7 +38188,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -38432,7 +38226,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -38464,7 +38258,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -38496,7 +38290,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -38528,7 +38322,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -38560,7 +38354,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -38592,7 +38386,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>344</v>
       </c>
@@ -38615,7 +38409,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>347</v>
       </c>
@@ -38638,7 +38432,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>349</v>
       </c>
@@ -38661,7 +38455,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>352</v>
       </c>
@@ -38684,7 +38478,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>355</v>
       </c>
@@ -38707,7 +38501,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>357</v>
       </c>
@@ -38730,7 +38524,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>359</v>
       </c>
@@ -38753,7 +38547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>362</v>
       </c>
@@ -38776,7 +38570,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>364</v>
       </c>
@@ -38799,7 +38593,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>367</v>
       </c>
@@ -38822,7 +38616,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>370</v>
       </c>
@@ -38845,7 +38639,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>372</v>
       </c>
@@ -38868,7 +38662,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>373</v>
       </c>
@@ -38891,7 +38685,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>374</v>
       </c>
@@ -38914,7 +38708,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>377</v>
       </c>
@@ -38937,7 +38731,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>379</v>
       </c>
@@ -38960,7 +38754,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>381</v>
       </c>
@@ -38983,7 +38777,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>383</v>
       </c>
@@ -39006,7 +38800,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>386</v>
       </c>
@@ -39029,7 +38823,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>388</v>
       </c>
@@ -39052,7 +38846,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>392</v>
       </c>
@@ -39075,7 +38869,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>396</v>
       </c>
@@ -39098,7 +38892,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>400</v>
       </c>
@@ -39121,7 +38915,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>403</v>
       </c>
@@ -39144,7 +38938,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>406</v>
       </c>
@@ -39167,7 +38961,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>408</v>
       </c>
@@ -39190,7 +38984,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>410</v>
       </c>
@@ -39213,7 +39007,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>412</v>
       </c>
@@ -39236,7 +39030,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>414</v>
       </c>
@@ -39259,7 +39053,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>417</v>
       </c>
@@ -39282,7 +39076,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>419</v>
       </c>
@@ -39305,7 +39099,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>422</v>
       </c>
@@ -39328,7 +39122,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>424</v>
       </c>
@@ -39351,7 +39145,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>427</v>
       </c>
@@ -39374,7 +39168,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>429</v>
       </c>
@@ -39397,7 +39191,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>431</v>
       </c>
@@ -39420,7 +39214,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>433</v>
       </c>
@@ -39443,7 +39237,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>436</v>
       </c>
@@ -39466,7 +39260,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>438</v>
       </c>
@@ -39489,7 +39283,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>440</v>
       </c>
@@ -39512,7 +39306,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>443</v>
       </c>
@@ -39535,7 +39329,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>445</v>
       </c>
@@ -39558,7 +39352,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>448</v>
       </c>
@@ -39581,7 +39375,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>452</v>
       </c>
@@ -39604,7 +39398,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>455</v>
       </c>
@@ -39627,7 +39421,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>458</v>
       </c>
@@ -39650,7 +39444,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>460</v>
       </c>
@@ -39673,7 +39467,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>462</v>
       </c>
@@ -39696,7 +39490,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>465</v>
       </c>
@@ -39719,7 +39513,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>467</v>
       </c>
@@ -39742,7 +39536,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>469</v>
       </c>
@@ -39765,7 +39559,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>472</v>
       </c>
@@ -39788,7 +39582,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>475</v>
       </c>
@@ -39811,7 +39605,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>477</v>
       </c>
@@ -39834,7 +39628,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>479</v>
       </c>
@@ -39857,7 +39651,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>481</v>
       </c>
@@ -39880,7 +39674,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>483</v>
       </c>
@@ -39903,7 +39697,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>485</v>
       </c>
@@ -39926,7 +39720,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>487</v>
       </c>
@@ -39949,7 +39743,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>490</v>
       </c>
@@ -39972,7 +39766,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>493</v>
       </c>
@@ -39995,7 +39789,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>495</v>
       </c>
@@ -40018,7 +39812,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>497</v>
       </c>
@@ -40041,7 +39835,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>500</v>
       </c>
@@ -40064,7 +39858,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>502</v>
       </c>
@@ -40087,7 +39881,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>506</v>
       </c>
@@ -40110,7 +39904,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>508</v>
       </c>
@@ -40133,7 +39927,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>510</v>
       </c>
@@ -40156,7 +39950,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>513</v>
       </c>
@@ -40179,7 +39973,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>515</v>
       </c>
@@ -40202,7 +39996,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>517</v>
       </c>
@@ -40225,7 +40019,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>519</v>
       </c>
@@ -40248,7 +40042,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>521</v>
       </c>
@@ -40271,7 +40065,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>523</v>
       </c>
@@ -40294,7 +40088,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>526</v>
       </c>
@@ -40317,7 +40111,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>529</v>
       </c>
@@ -40340,7 +40134,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>531</v>
       </c>
@@ -40363,7 +40157,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>533</v>
       </c>
@@ -40386,7 +40180,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>536</v>
       </c>
@@ -40409,7 +40203,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>538</v>
       </c>
@@ -40432,7 +40226,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>540</v>
       </c>
@@ -40455,7 +40249,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>542</v>
       </c>
@@ -40478,7 +40272,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>544</v>
       </c>
@@ -40501,7 +40295,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>546</v>
       </c>
@@ -40524,7 +40318,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>548</v>
       </c>
@@ -40547,7 +40341,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>550</v>
       </c>
@@ -40570,7 +40364,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>554</v>
       </c>
@@ -40593,7 +40387,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>556</v>
       </c>
@@ -40616,7 +40410,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>558</v>
       </c>
@@ -40639,7 +40433,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="216" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>560</v>
       </c>
@@ -40662,7 +40456,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>563</v>
       </c>
@@ -40685,7 +40479,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="218" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>565</v>
       </c>
@@ -40708,7 +40502,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="219" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>578</v>
       </c>
@@ -40731,7 +40525,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="220" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>567</v>
       </c>
@@ -40754,7 +40548,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>569</v>
       </c>
@@ -40777,7 +40571,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>571</v>
       </c>
@@ -40800,7 +40594,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>573</v>
       </c>
@@ -40823,7 +40617,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>575</v>
       </c>
@@ -40846,7 +40640,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>580</v>
       </c>
@@ -40869,7 +40663,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>582</v>
       </c>
@@ -40892,7 +40686,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>588</v>
       </c>
@@ -40915,7 +40709,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>591</v>
       </c>
@@ -40938,7 +40732,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>584</v>
       </c>
@@ -40961,7 +40755,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="230" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>586</v>
       </c>
@@ -40984,7 +40778,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="231" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>594</v>
       </c>
@@ -41007,7 +40801,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="232" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>596</v>
       </c>
@@ -41030,7 +40824,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="233" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>598</v>
       </c>
@@ -41053,7 +40847,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="234" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>600</v>
       </c>
@@ -41076,7 +40870,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="235" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>602</v>
       </c>
@@ -41099,7 +40893,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="236" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>605</v>
       </c>
@@ -41122,7 +40916,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="237" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>607</v>
       </c>
@@ -41145,7 +40939,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="238" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>610</v>
       </c>
@@ -41168,7 +40962,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="239" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>612</v>
       </c>
@@ -41191,7 +40985,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>614</v>
       </c>
@@ -41214,7 +41008,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="241" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>616</v>
       </c>
@@ -41237,7 +41031,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="242" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>619</v>
       </c>
@@ -41260,7 +41054,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="243" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>621</v>
       </c>
@@ -41283,7 +41077,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="244" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>624</v>
       </c>
@@ -41306,7 +41100,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="245" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>626</v>
       </c>
@@ -41329,7 +41123,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="246" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>628</v>
       </c>
@@ -41352,7 +41146,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="247" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>630</v>
       </c>
@@ -41375,7 +41169,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="248" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>632</v>
       </c>
@@ -41398,7 +41192,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="249" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>634</v>
       </c>
@@ -41421,7 +41215,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="250" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>636</v>
       </c>
@@ -41444,7 +41238,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="251" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>638</v>
       </c>
@@ -41467,7 +41261,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="252" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>640</v>
       </c>
@@ -41490,7 +41284,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="253" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>643</v>
       </c>
@@ -41513,7 +41307,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>647</v>
       </c>
@@ -41536,7 +41330,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="255" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>650</v>
       </c>
@@ -41559,7 +41353,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="256" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>653</v>
       </c>
@@ -41582,7 +41376,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="257" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>656</v>
       </c>
@@ -41605,7 +41399,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="258" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>658</v>
       </c>
@@ -41628,7 +41422,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="259" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>660</v>
       </c>
@@ -41651,7 +41445,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="260" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>662</v>
       </c>
@@ -41674,7 +41468,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="261" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>664</v>
       </c>
@@ -41697,7 +41491,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="262" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>666</v>
       </c>
@@ -41720,7 +41514,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="263" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>668</v>
       </c>
@@ -41743,7 +41537,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="264" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>670</v>
       </c>
@@ -41766,7 +41560,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="265" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>672</v>
       </c>
@@ -41789,7 +41583,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="266" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>677</v>
       </c>
@@ -41812,7 +41606,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="267" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>674</v>
       </c>
@@ -41835,7 +41629,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="268" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>679</v>
       </c>
@@ -41858,7 +41652,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="269" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>681</v>
       </c>
@@ -41881,7 +41675,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="270" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>684</v>
       </c>
@@ -41904,7 +41698,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="271" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>686</v>
       </c>
@@ -41927,7 +41721,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="272" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>688</v>
       </c>
@@ -41950,7 +41744,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="273" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>690</v>
       </c>
@@ -41973,7 +41767,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>692</v>
       </c>
@@ -41996,7 +41790,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="275" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>692</v>
       </c>
@@ -42019,7 +41813,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="276" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>695</v>
       </c>
@@ -42042,7 +41836,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="277" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>697</v>
       </c>
@@ -42065,7 +41859,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="278" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>699</v>
       </c>
@@ -42088,7 +41882,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="279" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>701</v>
       </c>
@@ -42111,7 +41905,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="280" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>703</v>
       </c>
@@ -42134,7 +41928,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="281" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>706</v>
       </c>
@@ -42157,7 +41951,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="282" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>709</v>
       </c>
@@ -42180,7 +41974,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="283" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>712</v>
       </c>
@@ -42203,7 +41997,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="284" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>714</v>
       </c>
@@ -42226,7 +42020,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="285" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>716</v>
       </c>
@@ -42249,7 +42043,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="286" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>718</v>
       </c>
@@ -42272,7 +42066,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="287" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>720</v>
       </c>
@@ -42295,7 +42089,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="288" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>722</v>
       </c>
@@ -42320,6 +42114,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q288" xr:uid="{C538273E-6A42-4B06-91EA-7E9DEB89C9FB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Northern Power 100-24"/>
+        <filter val="Northern Power Northwind 100"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q288">
       <sortCondition ref="D1"/>
     </sortState>
@@ -42334,18 +42134,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B728E525-AB10-4338-BF7C-206AC142E447}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -42353,17 +42153,17 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -42377,7 +42177,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -42388,7 +42188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -42399,7 +42199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -42413,7 +42213,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -42427,7 +42227,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -42441,7 +42241,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -42455,7 +42255,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -42469,7 +42269,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -42483,7 +42283,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -42497,7 +42297,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -42511,7 +42311,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -42525,7 +42325,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -42539,7 +42339,7 @@
         <v>16.190000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -42553,7 +42353,7 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -42567,7 +42367,7 @@
         <v>25.04</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -42581,7 +42381,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -42595,7 +42395,7 @@
         <v>35.07</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -42609,7 +42409,7 @@
         <v>39.69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -42623,7 +42423,7 @@
         <v>43.96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -42637,7 +42437,7 @@
         <v>47.67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -42651,7 +42451,7 @@
         <v>51.52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -42665,7 +42465,7 @@
         <v>54.73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -42679,7 +42479,7 @@
         <v>56.84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>40</v>
       </c>
@@ -42693,7 +42493,7 @@
         <v>58.92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="F29">
         <v>12</v>
@@ -42702,7 +42502,7 @@
         <v>60.25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="F30">
         <v>12.5</v>
@@ -42711,7 +42511,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="F31">
         <v>13</v>
@@ -42720,7 +42520,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="F32">
         <v>13.5</v>
@@ -42729,7 +42529,7 @@
         <v>62.67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="F33">
         <v>14</v>
@@ -42738,7 +42538,7 @@
         <v>63.38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="F34">
         <v>14.5</v>
@@ -42747,7 +42547,7 @@
         <v>63.62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="F35">
         <v>15</v>
@@ -42756,7 +42556,7 @@
         <v>65.02</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="F36">
         <v>15.5</v>
@@ -42765,7 +42565,7 @@
         <v>65.47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="F37">
         <v>16</v>
@@ -42774,7 +42574,7 @@
         <v>65.67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="F38">
         <v>16.5</v>
@@ -42783,7 +42583,7 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="F39">
         <v>16.899999999999999</v>
@@ -42792,7 +42592,7 @@
         <v>67.459999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
   </sheetData>
@@ -42803,20 +42603,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB579DCF-5B1B-49EC-A083-B4D064C62F2E}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -42824,12 +42624,12 @@
         <v>769</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -42837,7 +42637,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -42851,9 +42651,9 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -42865,9 +42665,9 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -42879,12 +42679,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F8">
         <v>1.04</v>
@@ -42893,12 +42693,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>1.54</v>
@@ -42907,12 +42707,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>3.7</v>
+        <v>11.7</v>
       </c>
       <c r="F10">
         <v>2.02</v>
@@ -42921,12 +42721,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>10.5</v>
+        <v>22.2</v>
       </c>
       <c r="F11">
         <v>2.5</v>
@@ -42935,12 +42735,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>35.5</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -42949,12 +42749,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>29.4</v>
+        <v>49.9</v>
       </c>
       <c r="F13">
         <v>3.52</v>
@@ -42963,12 +42763,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>63.4</v>
       </c>
       <c r="F14">
         <v>4.01</v>
@@ -42977,12 +42777,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>54.3</v>
+        <v>74.7</v>
       </c>
       <c r="F15">
         <v>4.5</v>
@@ -42991,12 +42791,12 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>66.8</v>
+        <v>83.5</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -43005,12 +42805,12 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>77.7</v>
+        <v>89.7</v>
       </c>
       <c r="F17">
         <v>5.5</v>
@@ -43019,12 +42819,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>86.4</v>
+        <v>93.7</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -43033,12 +42833,12 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>92.8</v>
+        <v>95.5</v>
       </c>
       <c r="F19">
         <v>6.49</v>
@@ -43047,12 +42847,12 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>97.3</v>
+        <v>95.2</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -43061,12 +42861,12 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="F21">
         <v>7.51</v>
@@ -43075,12 +42875,12 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>100.8</v>
+        <v>87.7</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -43089,12 +42889,12 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>100.6</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F23">
         <v>8.5</v>
@@ -43103,12 +42903,12 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>99.8</v>
+        <v>73.8</v>
       </c>
       <c r="F24">
         <v>8.98</v>
@@ -43117,12 +42917,12 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>99.4</v>
+        <v>67.3</v>
       </c>
       <c r="F25">
         <v>9.5</v>
@@ -43131,12 +42931,12 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>98.6</v>
+        <v>62.4</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -43145,12 +42945,12 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>97.8</v>
+        <v>57.7</v>
       </c>
       <c r="F27">
         <v>10.49</v>
@@ -43159,12 +42959,12 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>97.3</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>10.98</v>
@@ -43173,12 +42973,12 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>97.3</v>
+        <v>50.6</v>
       </c>
       <c r="F29">
         <v>11.47</v>
@@ -43187,12 +42987,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>98</v>
+        <v>47.4</v>
       </c>
       <c r="F30">
         <v>11.98</v>
@@ -43201,12 +43001,12 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>99.7</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>12.43</v>
@@ -43215,9 +43015,9 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -43229,9 +43029,9 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -43243,9 +43043,9 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -43257,9 +43057,9 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -43271,13 +43071,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>14.81</v>
       </c>
@@ -43285,90 +43079,12 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>15.4</v>
       </c>
       <c r="G37">
         <v>97.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -43380,20 +43096,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28F12A8-4348-43D6-A9DE-C8B2F6B8771B}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -43401,12 +43117,12 @@
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -43414,7 +43130,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -43428,9 +43144,9 @@
         <v>729</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -43442,9 +43158,9 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -43456,12 +43172,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -43470,12 +43186,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -43484,12 +43200,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>11.7</v>
+        <v>3.7</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -43498,12 +43214,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>22.2</v>
+        <v>10.5</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -43512,12 +43228,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>35.5</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="17">
+        <v>19</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -43526,12 +43242,12 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>49.9</v>
+        <v>29.4</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -43540,12 +43256,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>63.4</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="17">
+        <v>41</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -43554,12 +43270,12 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>74.7</v>
+        <v>54.3</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -43568,12 +43284,12 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>83.5</v>
+        <v>66.8</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -43582,12 +43298,12 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>89.7</v>
+        <v>77.7</v>
       </c>
       <c r="F17">
         <v>12</v>
@@ -43596,12 +43312,12 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>93.7</v>
+        <v>86.4</v>
       </c>
       <c r="F18">
         <v>13</v>
@@ -43610,12 +43326,12 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>95.5</v>
+        <v>92.8</v>
       </c>
       <c r="F19">
         <v>14</v>
@@ -43624,12 +43340,12 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>95.2</v>
+        <v>97.3</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -43638,12 +43354,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>92.5</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="17">
+        <v>100</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -43652,12 +43368,12 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>87.7</v>
+        <v>100.8</v>
       </c>
       <c r="F22">
         <v>17</v>
@@ -43666,12 +43382,12 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>81.099999999999994</v>
+        <v>100.6</v>
       </c>
       <c r="F23">
         <v>18</v>
@@ -43680,12 +43396,12 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>73.8</v>
+        <v>99.8</v>
       </c>
       <c r="F24">
         <v>19</v>
@@ -43694,12 +43410,12 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>67.3</v>
+        <v>99.4</v>
       </c>
       <c r="F25">
         <v>20</v>
@@ -43708,12 +43424,12 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>62.4</v>
+        <v>98.6</v>
       </c>
       <c r="F26">
         <v>21</v>
@@ -43722,12 +43438,12 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>57.7</v>
+        <v>97.8</v>
       </c>
       <c r="F27">
         <v>22</v>
@@ -43736,12 +43452,12 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>54</v>
+        <v>97.3</v>
       </c>
       <c r="F28">
         <v>23</v>
@@ -43750,12 +43466,12 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>50.6</v>
+        <v>97.3</v>
       </c>
       <c r="F29">
         <v>24</v>
@@ -43764,12 +43480,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>47.4</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="17">
+        <v>98</v>
       </c>
       <c r="F30">
         <v>25</v>
@@ -43778,43 +43494,131 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>26</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>27</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
         <v>0</v>
       </c>
     </row>
@@ -43832,14 +43636,14 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -43847,18 +43651,18 @@
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>753</v>
@@ -43870,27 +43674,27 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2.5</v>
       </c>
@@ -43901,7 +43705,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -43912,7 +43716,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3.5</v>
       </c>
@@ -43923,7 +43727,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -43934,7 +43738,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4.5</v>
       </c>
@@ -43945,7 +43749,7 @@
         <v>6.46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>5</v>
       </c>
@@ -43956,7 +43760,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5.5</v>
       </c>
@@ -43967,7 +43771,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -43978,7 +43782,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>6.5</v>
       </c>
@@ -43989,7 +43793,7 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>7</v>
       </c>
@@ -44000,7 +43804,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>7.5</v>
       </c>
@@ -44011,7 +43815,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>8</v>
       </c>
@@ -44022,7 +43826,7 @@
         <v>46.29</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>8.5</v>
       </c>
@@ -44033,7 +43837,7 @@
         <v>51.49</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>9</v>
       </c>
@@ -44044,7 +43848,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>9.5</v>
       </c>
@@ -44055,7 +43859,7 @@
         <v>68.97</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>10</v>
       </c>
@@ -44066,7 +43870,7 @@
         <v>83.67</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>10.5</v>
       </c>
@@ -44077,7 +43881,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -44088,7 +43892,7 @@
         <v>96.78</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>11.5</v>
       </c>
@@ -44099,7 +43903,7 @@
         <v>100.47</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>12</v>
       </c>
@@ -44110,7 +43914,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>12.5</v>
       </c>
@@ -44133,17 +43937,17 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -44151,17 +43955,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>725</v>
       </c>
@@ -44169,7 +43973,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -44183,7 +43987,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -44197,7 +44001,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -44211,7 +44015,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -44225,7 +44029,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -44239,7 +44043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -44253,7 +44057,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -44267,7 +44071,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -44281,7 +44085,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -44295,7 +44099,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -44309,7 +44113,7 @@
         <v>2.0739999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -44323,7 +44127,7 @@
         <v>2.8780000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -44337,7 +44141,7 @@
         <v>3.8239999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -44351,7 +44155,7 @@
         <v>4.8970000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -44365,7 +44169,7 @@
         <v>6.0890000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -44379,7 +44183,7 @@
         <v>7.226</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -44393,7 +44197,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -44407,7 +44211,7 @@
         <v>9.7309999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -44421,7 +44225,7 @@
         <v>11.265000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -44435,7 +44239,7 @@
         <v>12.361000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -44449,7 +44253,7 @@
         <v>13.664</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -44463,7 +44267,7 @@
         <v>14.502000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -44477,7 +44281,7 @@
         <v>15.612</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -44491,7 +44295,7 @@
         <v>16.303999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -44505,7 +44309,7 @@
         <v>16.876000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -44519,7 +44323,7 @@
         <v>17.506</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -44533,7 +44337,7 @@
         <v>18.212</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -44547,7 +44351,7 @@
         <v>18.942</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -44561,7 +44365,7 @@
         <v>19.096</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -44575,7 +44379,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -44589,7 +44393,7 @@
         <v>20.355</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -44603,7 +44407,7 @@
         <v>20.251000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>16</v>
       </c>
@@ -44614,7 +44418,7 @@
         <v>20.611000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>16.5</v>
       </c>
@@ -44640,14 +44444,14 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -44655,22 +44459,22 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>753</v>
       </c>
@@ -44681,7 +44485,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -44692,7 +44496,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -44703,7 +44507,7 @@
         <v>-2.24E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -44714,7 +44518,7 @@
         <v>-2.24E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -44725,7 +44529,7 @@
         <v>-2.23E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -44736,7 +44540,7 @@
         <v>-1.95E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -44747,7 +44551,7 @@
         <v>-6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -44758,7 +44562,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -44769,7 +44573,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -44780,7 +44584,7 @@
         <v>9.4900000000000012E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -44791,7 +44595,7 @@
         <v>0.14940000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -44802,7 +44606,7 @@
         <v>0.21859999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -44813,7 +44617,7 @@
         <v>0.29580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -44824,7 +44628,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -44835,7 +44639,7 @@
         <v>0.50019999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -44846,7 +44650,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -44857,7 +44661,7 @@
         <v>0.75170000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -44868,7 +44672,7 @@
         <v>0.92649999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -44879,7 +44683,7 @@
         <v>1.0934000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -44890,7 +44694,7 @@
         <v>1.2390999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -44901,7 +44705,7 @@
         <v>1.3605</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -44912,7 +44716,7 @@
         <v>1.4356</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -44923,7 +44727,7 @@
         <v>1.4329000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -44934,7 +44738,7 @@
         <v>1.2490999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -44945,7 +44749,7 @@
         <v>1.0911</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -44956,7 +44760,7 @@
         <v>0.78379999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -44967,7 +44771,7 @@
         <v>0.6997000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -44978,7 +44782,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -44989,7 +44793,7 @@
         <v>0.5161</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -45000,7 +44804,7 @@
         <v>0.25119999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -45011,7 +44815,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
@@ -45022,7 +44826,7 @@
         <v>0.2056</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
@@ -45048,14 +44852,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -45063,22 +44867,22 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>753</v>
       </c>
@@ -45089,7 +44893,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -45100,7 +44904,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -45111,7 +44915,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -45122,7 +44926,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -45133,7 +44937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -45144,7 +44948,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -45155,7 +44959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -45166,7 +44970,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -45177,7 +44981,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -45188,7 +44992,7 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -45199,7 +45003,7 @@
         <v>17.29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -45210,7 +45014,7 @@
         <v>21.23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -45221,7 +45025,7 @@
         <v>26.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -45232,7 +45036,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -45243,7 +45047,7 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -45254,7 +45058,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -45265,7 +45069,7 @@
         <v>48.44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -45276,7 +45080,7 @@
         <v>52.69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -45287,7 +45091,7 @@
         <v>55.67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -45298,7 +45102,7 @@
         <v>59.17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -45309,7 +45113,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -45320,7 +45124,7 @@
         <v>61.63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -45331,7 +45135,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -45342,7 +45146,7 @@
         <v>63.24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -45353,7 +45157,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -45364,7 +45168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -45375,7 +45179,7 @@
         <v>64.28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -45397,18 +45201,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264F39D6-08B1-4D64-8706-ADE3C9F56AA1}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -45416,22 +45220,22 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>753</v>
       </c>
@@ -45442,7 +45246,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -45453,7 +45257,7 @@
         <v>-0.26300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -45464,7 +45268,7 @@
         <v>-0.38500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -45475,7 +45279,7 @@
         <v>-0.54100000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -45486,7 +45290,7 @@
         <v>-0.32700000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -45497,7 +45301,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -45508,7 +45312,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -45519,7 +45323,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -45530,7 +45334,7 @@
         <v>2.2820999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -45541,7 +45345,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -45552,7 +45356,7 @@
         <v>5.976</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -45563,7 +45367,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -45574,7 +45378,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -45585,7 +45389,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -45596,7 +45400,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -45607,7 +45411,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -45618,7 +45422,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -45629,7 +45433,7 @@
         <v>22.36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -45640,7 +45444,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -45651,7 +45455,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -45662,7 +45466,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -45673,7 +45477,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -45684,7 +45488,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -45695,7 +45499,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -45706,7 +45510,7 @@
         <v>31.04</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -45717,7 +45521,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -45728,7 +45532,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -45739,7 +45543,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -45750,7 +45554,7 @@
         <v>33.14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -45761,7 +45565,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -45772,7 +45576,7 @@
         <v>34.229999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
@@ -45783,7 +45587,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
@@ -45794,7 +45598,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
@@ -45805,7 +45609,7 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -45816,7 +45620,7 @@
         <v>33.53</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
@@ -45827,7 +45631,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
@@ -45838,7 +45642,7 @@
         <v>32.92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
@@ -45859,19 +45663,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>739</v>
       </c>
@@ -45879,12 +45683,12 @@
         <v>740</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -45893,7 +45697,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -45910,7 +45714,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -45927,7 +45731,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -45944,7 +45748,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -45961,7 +45765,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -45978,7 +45782,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -45995,7 +45799,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -46012,7 +45816,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -46029,7 +45833,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -46046,7 +45850,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -46063,7 +45867,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -46080,7 +45884,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -46097,7 +45901,7 @@
         <v>0.28500000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -46114,7 +45918,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -46131,7 +45935,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -46148,7 +45952,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -46165,7 +45969,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -46182,7 +45986,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -46199,7 +46003,7 @@
         <v>1.1460000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -46216,7 +46020,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -46233,7 +46037,7 @@
         <v>1.5310000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -46250,7 +46054,7 @@
         <v>1.7450000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -46267,7 +46071,7 @@
         <v>1.9379999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -46284,7 +46088,7 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -46301,7 +46105,7 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -46318,7 +46122,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -46335,7 +46139,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -46352,7 +46156,7 @@
         <v>2.403</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -46369,7 +46173,7 @@
         <v>2.403</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -46386,7 +46190,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -46403,7 +46207,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -46420,7 +46224,7 @@
         <v>2.4119999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>31</v>
       </c>
@@ -46431,7 +46235,7 @@
         <v>2.403</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>32</v>
       </c>
@@ -46442,7 +46246,7 @@
         <v>2.3930000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>33</v>
       </c>
@@ -46464,19 +46268,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -46484,12 +46288,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -46497,7 +46301,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -46514,7 +46318,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -46531,7 +46335,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -46548,7 +46352,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -46565,7 +46369,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -46582,7 +46386,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -46599,7 +46403,7 @@
         <v>-5.1000000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -46616,7 +46420,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -46633,7 +46437,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -46650,7 +46454,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -46667,7 +46471,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -46684,7 +46488,7 @@
         <v>0.28500000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -46701,7 +46505,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
@@ -46718,7 +46522,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -46735,7 +46539,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>14</v>
       </c>
@@ -46746,7 +46550,7 @@
         <v>1.972</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>15</v>
       </c>
@@ -46757,7 +46561,7 @@
         <v>2.4830000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>16</v>
       </c>
@@ -46768,7 +46572,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>17</v>
       </c>
@@ -46779,7 +46583,7 @@
         <v>3.581</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>18</v>
       </c>
@@ -46790,7 +46594,7 @@
         <v>4.0419999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>19</v>
       </c>
@@ -46801,7 +46605,7 @@
         <v>4.4829999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>20</v>
       </c>
@@ -46812,7 +46616,7 @@
         <v>4.8380000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>21</v>
       </c>
@@ -46823,7 +46627,7 @@
         <v>5.141</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>22</v>
       </c>
@@ -46834,7 +46638,7 @@
         <v>5.4020000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>23</v>
       </c>
@@ -46845,7 +46649,7 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>24</v>
       </c>
@@ -46856,7 +46660,7 @@
         <v>5.8449999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>25</v>
       </c>
@@ -46867,7 +46671,7 @@
         <v>5.9580000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>26</v>
       </c>
@@ -46878,7 +46682,7 @@
         <v>6.0019999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>27</v>
       </c>
@@ -46889,7 +46693,7 @@
         <v>5.915</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>28</v>
       </c>
@@ -46900,7 +46704,7 @@
         <v>5.7560000000000002</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>29</v>
       </c>
@@ -46911,7 +46715,7 @@
         <v>5.5149999999999997</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>30</v>
       </c>
@@ -46922,7 +46726,7 @@
         <v>5.2359999999999998</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>31</v>
       </c>
@@ -46933,7 +46737,7 @@
         <v>4.9139999999999997</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>32</v>
       </c>
@@ -46944,7 +46748,7 @@
         <v>4.6029999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>33</v>
       </c>
@@ -46955,7 +46759,7 @@
         <v>4.2489999999999997</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>34</v>
       </c>
@@ -46980,15 +46784,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -46996,12 +46800,12 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -47009,7 +46813,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -47026,7 +46830,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -47043,7 +46847,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -47060,7 +46864,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -47077,7 +46881,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -47094,7 +46898,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -47111,7 +46915,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -47128,7 +46932,7 @@
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -47145,7 +46949,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -47162,7 +46966,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -47179,7 +46983,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -47196,7 +47000,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -47213,7 +47017,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -47230,7 +47034,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -47247,7 +47051,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -47264,7 +47068,7 @@
         <v>1.8940000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -47281,7 +47085,7 @@
         <v>2.2709999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -47298,7 +47102,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -47315,7 +47119,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -47332,7 +47136,7 @@
         <v>3.5230000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -47349,7 +47153,7 @@
         <v>3.9180000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -47366,7 +47170,7 @@
         <v>4.2439999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -47383,7 +47187,7 @@
         <v>4.4960000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -47400,7 +47204,7 @@
         <v>4.7110000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -47417,7 +47221,7 @@
         <v>4.8340000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -47434,7 +47238,7 @@
         <v>4.9290000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -47451,7 +47255,7 @@
         <v>4.9750000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -47468,7 +47272,7 @@
         <v>4.9710000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -47485,7 +47289,7 @@
         <v>4.9720000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -47502,7 +47306,7 @@
         <v>4.9740000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -47519,7 +47323,7 @@
         <v>4.931</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -47536,7 +47340,7 @@
         <v>4.9649999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>31</v>
       </c>
@@ -47547,7 +47351,7 @@
         <v>5.0140000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>32</v>
       </c>
@@ -47558,7 +47362,7 @@
         <v>5.0789999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>33</v>
       </c>
@@ -47569,7 +47373,7 @@
         <v>5.0960000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>34</v>
       </c>
@@ -47580,7 +47384,7 @@
         <v>5.0730000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>35</v>
       </c>
@@ -47591,7 +47395,7 @@
         <v>5.056</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>36</v>
       </c>
@@ -47602,7 +47406,7 @@
         <v>5.0720000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>37</v>
       </c>
@@ -47613,7 +47417,7 @@
         <v>5.0259999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>38</v>
       </c>
@@ -47634,19 +47438,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56EE07B-3FDF-4B3E-8C7A-9B2EF42BF5AE}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -47654,17 +47458,17 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>725</v>
       </c>
@@ -47672,7 +47476,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -47689,7 +47493,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -47706,7 +47510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -47723,7 +47527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -47740,7 +47544,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -47757,7 +47561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -47774,7 +47578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -47791,7 +47595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -47808,7 +47612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -47825,7 +47629,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -47842,7 +47646,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -47859,7 +47663,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -47876,7 +47680,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -47893,7 +47697,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -47910,7 +47714,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -47927,7 +47731,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -47944,7 +47748,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -47961,7 +47765,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -47978,7 +47782,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -47995,7 +47799,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -48012,7 +47816,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -48029,7 +47833,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -48046,7 +47850,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -48063,7 +47867,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -48080,7 +47884,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -48097,7 +47901,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -48114,7 +47918,7 @@
         <v>5851</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -48131,7 +47935,7 @@
         <v>5960</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -48148,7 +47952,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -48165,7 +47969,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -48182,7 +47986,7 @@
         <v>6064</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -48199,7 +48003,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>31</v>
       </c>
@@ -48210,7 +48014,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>32</v>
       </c>
@@ -48235,18 +48039,18 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -48254,17 +48058,17 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>725</v>
       </c>
@@ -48272,7 +48076,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -48286,7 +48090,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -48303,7 +48107,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -48320,7 +48124,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -48337,7 +48141,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -48354,7 +48158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -48371,7 +48175,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -48388,7 +48192,7 @@
         <v>0.10200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -48405,7 +48209,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -48422,7 +48226,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -48439,7 +48243,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -48456,7 +48260,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -48473,7 +48277,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -48490,7 +48294,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -48507,7 +48311,7 @@
         <v>1.9379999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -48524,7 +48328,7 @@
         <v>2.403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -48541,7 +48345,7 @@
         <v>2.9489999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -48558,7 +48362,7 @@
         <v>3.6019999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -48575,7 +48379,7 @@
         <v>4.306</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -48592,7 +48396,7 @@
         <v>5.0709999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -48609,7 +48413,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -48626,7 +48430,7 @@
         <v>6.8559999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -48643,7 +48447,7 @@
         <v>7.8490000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -48660,7 +48464,7 @@
         <v>8.8629999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -48677,7 +48481,7 @@
         <v>9.9280000000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -48694,7 +48498,7 @@
         <v>10.885</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -48711,7 +48515,7 @@
         <v>11.619</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -48728,7 +48532,7 @@
         <v>12.019</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -48745,7 +48549,7 @@
         <v>12.276</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -48762,7 +48566,7 @@
         <v>12.395</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -48779,7 +48583,7 @@
         <v>12.449</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -48796,7 +48600,7 @@
         <v>12.495000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>31</v>
       </c>
@@ -48807,7 +48611,7 @@
         <v>12.508000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>32</v>
       </c>
@@ -48818,7 +48622,7 @@
         <v>12.545999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>33</v>
       </c>
@@ -48829,7 +48633,7 @@
         <v>12.555</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>34</v>
       </c>
@@ -48840,7 +48644,7 @@
         <v>12.503</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>35</v>
       </c>
@@ -48851,7 +48655,7 @@
         <v>12.528</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>36</v>
       </c>
@@ -48862,7 +48666,7 @@
         <v>12.442</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>37</v>
       </c>
@@ -48873,7 +48677,7 @@
         <v>12.396000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>38</v>
       </c>
@@ -48884,7 +48688,7 @@
         <v>12.208</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>39</v>
       </c>
@@ -48895,7 +48699,7 @@
         <v>11.878</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>40</v>
       </c>
@@ -48906,7 +48710,7 @@
         <v>11.989000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>41</v>
       </c>
@@ -48931,14 +48735,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>739</v>
       </c>
@@ -48946,12 +48750,12 @@
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -48959,7 +48763,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -48976,7 +48780,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -48993,7 +48797,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -49010,7 +48814,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -49027,7 +48831,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -49044,7 +48848,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -49061,7 +48865,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -49078,7 +48882,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -49095,7 +48899,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -49112,7 +48916,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -49129,7 +48933,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -49146,7 +48950,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -49163,7 +48967,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -49180,7 +48984,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -49197,7 +49001,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -49214,7 +49018,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -49231,7 +49035,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -49248,7 +49052,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -49265,7 +49069,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -49282,7 +49086,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -49299,7 +49103,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -49316,7 +49120,7 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -49333,7 +49137,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -49350,7 +49154,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -49367,7 +49171,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -49384,7 +49188,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -49401,7 +49205,7 @@
         <v>10.67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -49418,7 +49222,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -49435,7 +49239,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -49452,7 +49256,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -49469,7 +49273,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -49486,7 +49290,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>31</v>
       </c>
@@ -49497,7 +49301,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>32</v>
       </c>
@@ -49508,7 +49312,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>33</v>
       </c>
@@ -49519,7 +49323,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>34</v>
       </c>
@@ -49530,7 +49334,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>35</v>
       </c>
@@ -49541,7 +49345,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>36</v>
       </c>
@@ -49552,7 +49356,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>37</v>
       </c>
@@ -49563,7 +49367,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>38</v>
       </c>
@@ -49574,7 +49378,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>39</v>
       </c>
@@ -49585,7 +49389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>40</v>
       </c>
@@ -49596,7 +49400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>41</v>
       </c>
@@ -49607,7 +49411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>42</v>
       </c>
@@ -49618,7 +49422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>43</v>
       </c>
@@ -49629,7 +49433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>44</v>
       </c>
@@ -49640,7 +49444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>45</v>
       </c>
@@ -49651,7 +49455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>46</v>
       </c>
@@ -49662,7 +49466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>47</v>
       </c>
@@ -49673,7 +49477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>48</v>
       </c>
@@ -49684,7 +49488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>49</v>
       </c>
@@ -49695,7 +49499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>50</v>
       </c>
@@ -49717,18 +49521,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF79E7F-5938-49F0-895F-751D805FCE5D}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -49736,15 +49540,15 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>725</v>
       </c>
@@ -49752,7 +49556,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -49766,7 +49570,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -49783,7 +49587,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -49800,7 +49604,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -49817,7 +49621,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -49834,7 +49638,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.35</v>
       </c>
@@ -49851,7 +49655,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -49868,7 +49672,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -49885,7 +49689,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -49902,7 +49706,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -49919,7 +49723,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -49936,7 +49740,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
@@ -49953,7 +49757,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -49970,7 +49774,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
@@ -49987,7 +49791,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11.62</v>
       </c>
@@ -50004,7 +49808,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -50021,7 +49825,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -50038,7 +49842,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -50055,7 +49859,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -50072,7 +49876,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -50089,7 +49893,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -50106,7 +49910,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -50123,7 +49927,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -50140,7 +49944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -50157,7 +49961,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -50174,7 +49978,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -50191,7 +49995,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -50208,7 +50012,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -50225,7 +50029,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25</v>
       </c>
@@ -50242,7 +50046,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26</v>
       </c>
@@ -50259,7 +50063,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -50276,7 +50080,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -50293,7 +50097,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>29</v>
       </c>
@@ -50310,7 +50114,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -50327,7 +50131,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31</v>
       </c>
@@ -50344,7 +50148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -50361,7 +50165,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>36</v>
       </c>
@@ -50372,7 +50176,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>37</v>
       </c>
@@ -50383,7 +50187,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>38</v>
       </c>
@@ -50394,7 +50198,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>39</v>
       </c>
@@ -50405,7 +50209,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>40</v>
       </c>
@@ -50427,17 +50231,17 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -50445,12 +50249,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>725</v>
       </c>
@@ -50458,7 +50262,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -50472,7 +50276,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -50486,7 +50290,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -50500,7 +50304,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -50514,7 +50318,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -50528,7 +50332,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -50542,7 +50346,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -50556,7 +50360,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -50570,7 +50374,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -50584,7 +50388,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -50598,7 +50402,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -50612,7 +50416,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -50626,7 +50430,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -50640,7 +50444,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -50654,7 +50458,7 @@
         <v>24.95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -50668,7 +50472,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -50682,7 +50486,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -50696,7 +50500,7 @@
         <v>28.46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -50710,7 +50514,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -50724,7 +50528,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -50738,7 +50542,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -50752,7 +50556,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -50766,7 +50570,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -50780,7 +50584,7 @@
         <v>27.74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -50794,7 +50598,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -50808,7 +50612,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -50822,7 +50626,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -50836,7 +50640,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -50850,7 +50654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -50864,7 +50668,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -50878,7 +50682,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -50892,13 +50696,8 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
       <c r="F37">
         <v>18</v>
       </c>
@@ -50906,13 +50705,8 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
       <c r="F38">
         <v>18.5</v>
       </c>
@@ -50920,13 +50714,8 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
       <c r="F39">
         <v>19</v>
       </c>
@@ -50934,13 +50723,8 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
       <c r="F40">
         <v>19.5</v>
       </c>
@@ -50948,13 +50732,8 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
       <c r="F41">
         <v>20</v>
       </c>
